--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w2shared-my.sharepoint.com/personal/dave_sushames01_student_wandw_ac_nz/Documents/Documents/Testing and Secure Coding/GroupAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="124" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{12DDD4B5-5FE7-44A9-AE95-C838AE89A5EB}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54AB62B5-BADE-42C8-B955-BE5915026F6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
   <si>
     <t>Project Name:</t>
   </si>
@@ -207,17 +207,36 @@
   </si>
   <si>
     <t>US013</t>
+  </si>
+  <si>
+    <t>Shontelle</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Sachith</t>
+  </si>
+  <si>
+    <t>Dave</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,40 +355,41 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
@@ -386,10 +406,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -603,7 +619,8 @@
     <col min="3" max="3" width="45" customWidth="1"/>
     <col min="4" max="4" width="28" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
     <col min="8" max="8" width="25.28515625" customWidth="1"/>
     <col min="9" max="9" width="33.140625" customWidth="1"/>
     <col min="10" max="26" width="8.7109375" customWidth="1"/>
@@ -669,6 +686,9 @@
       <c r="F7" s="9" t="s">
         <v>11</v>
       </c>
+      <c r="G7" s="13" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
@@ -683,13 +703,13 @@
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="2"/>
+      <c r="G8" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -720,13 +740,13 @@
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>2</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -756,13 +776,13 @@
       <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>2</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -792,13 +812,13 @@
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
+      <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -828,13 +848,13 @@
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
+      <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>1</v>
       </c>
-      <c r="G12" s="2"/>
+      <c r="G12" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -864,13 +884,13 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
+      <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="2"/>
+      <c r="G13" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -900,13 +920,13 @@
       <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1">
-        <v>3</v>
-      </c>
+      <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="2"/>
+      <c r="G14" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -936,13 +956,13 @@
       <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="1">
-        <v>3</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -972,14 +992,15 @@
       <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="3">
-        <v>3</v>
-      </c>
+      <c r="E16" s="3"/>
       <c r="F16" s="3">
         <v>1</v>
       </c>
+      <c r="G16" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="17" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
         <v>21</v>
@@ -990,14 +1011,15 @@
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="3">
-        <v>3</v>
-      </c>
+      <c r="E17" s="3"/>
       <c r="F17" s="3">
         <v>1</v>
       </c>
+      <c r="G17" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="18" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
@@ -1008,14 +1030,15 @@
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="3">
-        <v>3</v>
-      </c>
+      <c r="E18" s="3"/>
       <c r="F18" s="3">
         <v>1</v>
       </c>
+      <c r="G18" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="19" spans="1:6" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>23</v>
@@ -1026,14 +1049,15 @@
       <c r="D19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="3">
-        <v>4</v>
-      </c>
+      <c r="E19" s="3"/>
       <c r="F19" s="3">
         <v>2</v>
       </c>
+      <c r="G19" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="20" spans="1:6" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
@@ -1043,28 +1067,29 @@
       <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="3">
-        <v>4</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3">
         <v>2</v>
       </c>
+      <c r="G20" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w2shared-my.sharepoint.com/personal/dave_sushames01_student_wandw_ac_nz/Documents/Documents/Testing and Secure Coding/GroupAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54AB62B5-BADE-42C8-B955-BE5915026F6D}"/>
+  <xr:revisionPtr revIDLastSave="218" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C97B45-DCCC-43FA-BD61-47343534FDDF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
   <si>
     <t>Project Name:</t>
   </si>
@@ -219,13 +219,67 @@
   </si>
   <si>
     <t>Dave</t>
+  </si>
+  <si>
+    <t>US014</t>
+  </si>
+  <si>
+    <t>US015</t>
+  </si>
+  <si>
+    <t>US016</t>
+  </si>
+  <si>
+    <t>US017</t>
+  </si>
+  <si>
+    <t>US018</t>
+  </si>
+  <si>
+    <t>Registered Admin can Create new Admins.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Edit Admin information.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Delete admins.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Search the admins.</t>
+  </si>
+  <si>
+    <t>Registered Admin can Sort the admin catalogue.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to add new admins to the list, so that I can sign in with different accounts.</t>
+  </si>
+  <si>
+    <t>As an admin,  I want to edit admin information, so that I can change my username/password</t>
+  </si>
+  <si>
+    <t>US019</t>
+  </si>
+  <si>
+    <t>Registered Admin can Disable the admins.</t>
+  </si>
+  <si>
+    <t>As an admin, I want to disable admin accounts, to prevent people signing in with them, while not fully deleting the account</t>
+  </si>
+  <si>
+    <t>As an admin, I want to delete admins including their details, so that users can't sign in with the account any more</t>
+  </si>
+  <si>
+    <t>As a user, I want to search for admins by keyword, so that I can search for a specific account easier.</t>
+  </si>
+  <si>
+    <t>As an Admin, I want to sort the admins in the catalogue according to Username</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,11 +319,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -357,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -377,19 +426,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - Accent3" xfId="1" builtinId="40"/>
@@ -406,6 +452,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -608,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -627,71 +677,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -730,7 +780,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
+      <c r="A9" s="10"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -766,7 +816,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
+      <c r="A10" s="10"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -802,7 +852,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+      <c r="A11" s="10"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -838,7 +888,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
+      <c r="A12" s="10"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -874,7 +924,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
+      <c r="A13" s="10"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -910,7 +960,7 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="A14" s="10"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -946,7 +996,7 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="A15" s="10"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -982,7 +1032,7 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="A16" s="10"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1001,7 +1051,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="10"/>
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1070,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="10"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +1089,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1075,14 +1125,107 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
-      <c r="C26" s="8"/>
+    <row r="21" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="12">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="12">
+        <v>1</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="12">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25" s="12">
+        <v>2</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" s="12">
+        <v>2</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w2shared-my.sharepoint.com/personal/dave_sushames01_student_wandw_ac_nz/Documents/Documents/Testing and Secure Coding/GroupAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="218" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77C97B45-DCCC-43FA-BD61-47343534FDDF}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8766B558-9678-4AE6-BE02-FEF5CE06C214}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -428,6 +428,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -658,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -741,7 +744,7 @@
       </c>
     </row>
     <row r="8" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -753,7 +756,9 @@
       <c r="D8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
@@ -780,7 +785,7 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
@@ -790,7 +795,9 @@
       <c r="D9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
       <c r="F9" s="1">
         <v>2</v>
       </c>
@@ -816,7 +823,7 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
@@ -826,7 +833,9 @@
       <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
       <c r="F10" s="1">
         <v>2</v>
       </c>
@@ -852,7 +861,7 @@
       <c r="Z10" s="2"/>
     </row>
     <row r="11" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
@@ -862,7 +871,9 @@
       <c r="D11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
@@ -888,7 +899,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -898,7 +909,9 @@
       <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
@@ -924,7 +937,7 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
@@ -934,7 +947,9 @@
       <c r="D13" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
@@ -960,7 +975,7 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
@@ -970,7 +985,9 @@
       <c r="D14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
@@ -996,7 +1013,7 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
@@ -1006,7 +1023,9 @@
       <c r="D15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
@@ -1032,7 +1051,7 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +1061,9 @@
       <c r="D16" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
       <c r="F16" s="3">
         <v>1</v>
       </c>
@@ -1051,7 +1072,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="5" t="s">
         <v>21</v>
       </c>
@@ -1061,7 +1082,9 @@
       <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
       <c r="F17" s="3">
         <v>1</v>
       </c>
@@ -1070,7 +1093,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
@@ -1080,7 +1103,9 @@
       <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
       <c r="F18" s="3">
         <v>1</v>
       </c>
@@ -1089,7 +1114,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="5" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1124,9 @@
       <c r="D19" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3">
+        <v>2</v>
+      </c>
       <c r="F19" s="3">
         <v>2</v>
       </c>
@@ -1117,7 +1144,9 @@
       <c r="D20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3">
+        <v>1</v>
+      </c>
       <c r="F20" s="3">
         <v>2</v>
       </c>
@@ -1135,10 +1164,13 @@
       <c r="D21" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12" t="s">
+      <c r="E21" s="13">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1152,10 +1184,13 @@
       <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="12">
-        <v>1</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="E22" s="13">
+        <v>1</v>
+      </c>
+      <c r="F22" s="9">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1169,10 +1204,13 @@
       <c r="D23" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="12">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12" t="s">
+      <c r="E23" s="13">
+        <v>1</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1186,10 +1224,13 @@
       <c r="D24" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="12">
+      <c r="E24" s="13">
+        <v>1</v>
+      </c>
+      <c r="F24" s="9">
         <v>2</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1203,10 +1244,13 @@
       <c r="D25" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F25" s="12">
+      <c r="E25" s="13">
         <v>2</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="F25" s="9">
+        <v>2</v>
+      </c>
+      <c r="G25" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1220,10 +1264,13 @@
       <c r="D26" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="12">
+      <c r="E26" s="13">
+        <v>1</v>
+      </c>
+      <c r="F26" s="9">
         <v>2</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="9" t="s">
         <v>56</v>
       </c>
     </row>

--- a/User Stories.xlsx
+++ b/User Stories.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://w2shared-my.sharepoint.com/personal/dave_sushames01_student_wandw_ac_nz/Documents/Documents/Testing and Secure Coding/GroupAssignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8766B558-9678-4AE6-BE02-FEF5CE06C214}"/>
+  <xr:revisionPtr revIDLastSave="248" documentId="11_54D282350BB20B8CABA1FC287F7825C14AB2CAC7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C6A1DB2-1469-4E5E-800B-7AE759333CC9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
   <si>
     <t>Project Name:</t>
   </si>
@@ -137,9 +137,6 @@
     <t>As an admin, I want to login the website, so that I can use the full functionality of the application.</t>
   </si>
   <si>
-    <t>New Admin able to create an account</t>
-  </si>
-  <si>
     <t>Registered Admin can Create new Books.</t>
   </si>
   <si>
@@ -273,6 +270,12 @@
   </si>
   <si>
     <t>As an Admin, I want to sort the admins in the catalogue according to Username</t>
+  </si>
+  <si>
+    <t>New Admin able to register an account</t>
+  </si>
+  <si>
+    <t>Reasoning behind priority setting method: The CRUD implementation for the Book, Author, and Admin classes would be easy to implement, so we decided to put them in the first sprint. The Search/Sort functionality would be a little harder, and also requires the pages to be set up first, so that went in sprint 2.</t>
   </si>
 </sst>
 </file>
@@ -436,8 +439,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -455,10 +458,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -661,8 +660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -740,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -751,7 +750,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>29</v>
@@ -760,10 +759,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -802,7 +801,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -828,10 +827,10 @@
         <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -840,7 +839,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -866,11 +865,11 @@
         <v>15</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="E11" s="1">
         <v>1</v>
       </c>
@@ -878,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -904,10 +903,10 @@
         <v>16</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -916,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -942,11 +941,11 @@
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="E13" s="1">
         <v>1</v>
       </c>
@@ -954,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -980,10 +979,10 @@
         <v>18</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" s="1">
         <v>2</v>
@@ -992,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -1018,10 +1017,10 @@
         <v>19</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>42</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -1030,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -1056,10 +1055,10 @@
         <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="3">
         <v>1</v>
@@ -1068,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1077,10 +1076,10 @@
         <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="3">
         <v>1</v>
@@ -1089,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1098,10 +1097,10 @@
         <v>22</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
         <v>1</v>
@@ -1110,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -1119,10 +1118,10 @@
         <v>23</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="3">
         <v>2</v>
@@ -1131,18 +1130,18 @@
         <v>2</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
@@ -1151,131 +1150,135 @@
         <v>2</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E21" s="13">
+        <v>69</v>
+      </c>
+      <c r="E21" s="9">
         <v>1</v>
       </c>
       <c r="F21" s="9">
         <v>1</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E22" s="13">
+        <v>70</v>
+      </c>
+      <c r="E22" s="9">
         <v>1</v>
       </c>
       <c r="F22" s="9">
         <v>1</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23" s="13">
+        <v>74</v>
+      </c>
+      <c r="E23" s="9">
         <v>1</v>
       </c>
       <c r="F23" s="9">
         <v>1</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="13">
+      <c r="E24" s="9">
         <v>1</v>
       </c>
       <c r="F24" s="9">
         <v>2</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="13">
+        <v>75</v>
+      </c>
+      <c r="E25" s="9">
         <v>2</v>
       </c>
       <c r="F25" s="9">
         <v>2</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="13">
+        <v>76</v>
+      </c>
+      <c r="E26" s="9">
         <v>1</v>
       </c>
       <c r="F26" s="9">
         <v>2</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
     <row r="29" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
